--- a/assets/demo_file/demo.xlsx
+++ b/assets/demo_file/demo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D33B04-517E-4F6A-AB68-B176362D876C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B9E36-30DF-4217-B922-3B420CD13169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16155E1C-3E6F-4960-A731-F3927C73D2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="127">
   <si>
     <t>TRƯỜNG ĐẠI HỌC MỞ HÀ NỘI</t>
   </si>
@@ -305,15 +305,6 @@
     <t>ĐT 4</t>
   </si>
   <si>
-    <t>16A31010068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phùng Linh </t>
-  </si>
-  <si>
-    <t>Chi</t>
-  </si>
-  <si>
     <t>28/09/1998</t>
   </si>
   <si>
@@ -350,15 +341,6 @@
     <t>Khá</t>
   </si>
   <si>
-    <t>16A31010015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Thị </t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
     <t>13/02/1998</t>
   </si>
   <si>
@@ -368,15 +350,6 @@
     <t>Trung bình</t>
   </si>
   <si>
-    <t>16A31010019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chu Thị Thanh </t>
-  </si>
-  <si>
-    <t>Hằng</t>
-  </si>
-  <si>
     <t>26/09/1998</t>
   </si>
   <si>
@@ -401,7 +374,46 @@
     <t>[D4:D6], [H4:H6]: cố định</t>
   </si>
   <si>
-    <t>TN Hoá Sinh</t>
+    <t>TN Hoá Sinh 1</t>
+  </si>
+  <si>
+    <t>Số quyết định</t>
+  </si>
+  <si>
+    <t>Ngày quyết định</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>2271/QĐ-ĐHM</t>
+  </si>
+  <si>
+    <t>20A31010068</t>
+  </si>
+  <si>
+    <t>20A31010015</t>
+  </si>
+  <si>
+    <t>20A31010019</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình</t>
+  </si>
+  <si>
+    <t>Tưởng</t>
+  </si>
+  <si>
+    <t>Khương Văn</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang</t>
+  </si>
+  <si>
+    <t>Huy</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +505,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -526,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -636,6 +655,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -644,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -738,16 +792,15 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -756,20 +809,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,6 +843,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,27 +1169,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42176BB-D2DF-4A25-88DF-3B841538B66A}">
-  <dimension ref="A1:GS12"/>
+  <dimension ref="A1:GU12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="202" max="202" width="17" customWidth="1"/>
+    <col min="203" max="203" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1318,14 +1392,14 @@
       <c r="GR1" s="5"/>
       <c r="GS1" s="4"/>
     </row>
-    <row r="2" spans="1:201" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1525,7 +1599,7 @@
       <c r="GR2" s="5"/>
       <c r="GS2" s="8"/>
     </row>
-    <row r="3" spans="1:201" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:203" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -1730,7 +1804,7 @@
       <c r="GR3" s="12"/>
       <c r="GS3" s="12"/>
     </row>
-    <row r="4" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="14" t="s">
@@ -1745,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1754,12 +1828,12 @@
       <c r="M4" s="2"/>
       <c r="N4" s="17"/>
       <c r="O4" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P4" s="2"/>
       <c r="R4" s="31"/>
       <c r="S4" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1941,7 +2015,7 @@
       <c r="GR4" s="2"/>
       <c r="GS4" s="12"/>
     </row>
-    <row r="5" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="14" t="s">
@@ -2152,14 +2226,14 @@
       <c r="GR5" s="2"/>
       <c r="GS5" s="12"/>
     </row>
-    <row r="6" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="32">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
@@ -2167,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="34">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2363,698 +2437,706 @@
       <c r="GR6" s="2"/>
       <c r="GS6" s="12"/>
     </row>
-    <row r="7" spans="1:201" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:203" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35" t="s">
+      <c r="H7" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="35" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37" t="s">
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="37" t="s">
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="37" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="37" t="s">
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="37" t="s">
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="35" t="s">
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="35" t="s">
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="35" t="s">
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="35" t="s">
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="35" t="s">
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="35" t="s">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="35" t="s">
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="35" t="s">
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="35" t="s">
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="35" t="s">
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="35" t="s">
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="35" t="s">
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="35" t="s">
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="35" t="s">
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="35" t="s">
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="35" t="s">
+      <c r="CC7" s="39"/>
+      <c r="CD7" s="39"/>
+      <c r="CE7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="CF7" s="36"/>
-      <c r="CG7" s="36"/>
-      <c r="CH7" s="35" t="s">
+      <c r="CF7" s="39"/>
+      <c r="CG7" s="39"/>
+      <c r="CH7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="35" t="s">
+      <c r="CI7" s="39"/>
+      <c r="CJ7" s="39"/>
+      <c r="CK7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="CL7" s="36"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="35" t="s">
+      <c r="CL7" s="39"/>
+      <c r="CM7" s="39"/>
+      <c r="CN7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="CO7" s="36"/>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="35" t="s">
+      <c r="CO7" s="39"/>
+      <c r="CP7" s="39"/>
+      <c r="CQ7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="35" t="s">
+      <c r="CR7" s="39"/>
+      <c r="CS7" s="39"/>
+      <c r="CT7" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="CU7" s="36"/>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="35" t="s">
+      <c r="CU7" s="39"/>
+      <c r="CV7" s="39"/>
+      <c r="CW7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="35" t="s">
+      <c r="CX7" s="39"/>
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="DA7" s="36"/>
-      <c r="DB7" s="36"/>
-      <c r="DC7" s="35" t="s">
+      <c r="DA7" s="39"/>
+      <c r="DB7" s="39"/>
+      <c r="DC7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="DD7" s="36"/>
-      <c r="DE7" s="36"/>
-      <c r="DF7" s="35" t="s">
+      <c r="DD7" s="39"/>
+      <c r="DE7" s="39"/>
+      <c r="DF7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="DG7" s="36"/>
-      <c r="DH7" s="36"/>
-      <c r="DI7" s="35" t="s">
+      <c r="DG7" s="39"/>
+      <c r="DH7" s="39"/>
+      <c r="DI7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="DJ7" s="36"/>
-      <c r="DK7" s="36"/>
-      <c r="DL7" s="35" t="s">
+      <c r="DJ7" s="39"/>
+      <c r="DK7" s="39"/>
+      <c r="DL7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="DM7" s="36"/>
-      <c r="DN7" s="36"/>
-      <c r="DO7" s="35" t="s">
+      <c r="DM7" s="39"/>
+      <c r="DN7" s="39"/>
+      <c r="DO7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="DP7" s="36"/>
-      <c r="DQ7" s="36"/>
-      <c r="DR7" s="35" t="s">
+      <c r="DP7" s="39"/>
+      <c r="DQ7" s="39"/>
+      <c r="DR7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="DS7" s="36"/>
-      <c r="DT7" s="36"/>
-      <c r="DU7" s="35" t="s">
+      <c r="DS7" s="39"/>
+      <c r="DT7" s="39"/>
+      <c r="DU7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="DV7" s="36"/>
-      <c r="DW7" s="36"/>
-      <c r="DX7" s="35" t="s">
+      <c r="DV7" s="39"/>
+      <c r="DW7" s="39"/>
+      <c r="DX7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="DY7" s="36"/>
-      <c r="DZ7" s="36"/>
-      <c r="EA7" s="35" t="s">
+      <c r="DY7" s="39"/>
+      <c r="DZ7" s="39"/>
+      <c r="EA7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="EB7" s="36"/>
-      <c r="EC7" s="36"/>
-      <c r="ED7" s="35" t="s">
+      <c r="EB7" s="39"/>
+      <c r="EC7" s="39"/>
+      <c r="ED7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="EE7" s="36"/>
-      <c r="EF7" s="36"/>
-      <c r="EG7" s="35" t="s">
+      <c r="EE7" s="39"/>
+      <c r="EF7" s="39"/>
+      <c r="EG7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="EH7" s="36"/>
-      <c r="EI7" s="36"/>
-      <c r="EJ7" s="35" t="s">
+      <c r="EH7" s="39"/>
+      <c r="EI7" s="39"/>
+      <c r="EJ7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="EK7" s="36"/>
-      <c r="EL7" s="36"/>
-      <c r="EM7" s="35" t="s">
+      <c r="EK7" s="39"/>
+      <c r="EL7" s="39"/>
+      <c r="EM7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="EN7" s="36"/>
-      <c r="EO7" s="36"/>
-      <c r="EP7" s="35" t="s">
+      <c r="EN7" s="39"/>
+      <c r="EO7" s="39"/>
+      <c r="EP7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="EQ7" s="36"/>
-      <c r="ER7" s="36"/>
-      <c r="ES7" s="35" t="s">
+      <c r="EQ7" s="39"/>
+      <c r="ER7" s="39"/>
+      <c r="ES7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="ET7" s="36"/>
-      <c r="EU7" s="36"/>
-      <c r="EV7" s="35" t="s">
+      <c r="ET7" s="39"/>
+      <c r="EU7" s="39"/>
+      <c r="EV7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="EW7" s="36"/>
-      <c r="EX7" s="36"/>
-      <c r="EY7" s="35" t="s">
+      <c r="EW7" s="39"/>
+      <c r="EX7" s="39"/>
+      <c r="EY7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="EZ7" s="36"/>
-      <c r="FA7" s="36"/>
-      <c r="FB7" s="35" t="s">
+      <c r="EZ7" s="39"/>
+      <c r="FA7" s="39"/>
+      <c r="FB7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="FC7" s="36"/>
-      <c r="FD7" s="36"/>
-      <c r="FE7" s="35" t="s">
+      <c r="FC7" s="39"/>
+      <c r="FD7" s="39"/>
+      <c r="FE7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="FF7" s="36"/>
-      <c r="FG7" s="36"/>
-      <c r="FH7" s="35" t="s">
+      <c r="FF7" s="39"/>
+      <c r="FG7" s="39"/>
+      <c r="FH7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="FI7" s="36"/>
-      <c r="FJ7" s="36"/>
-      <c r="FK7" s="35" t="s">
+      <c r="FI7" s="39"/>
+      <c r="FJ7" s="39"/>
+      <c r="FK7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="FL7" s="36"/>
-      <c r="FM7" s="36"/>
-      <c r="FN7" s="35" t="s">
+      <c r="FL7" s="39"/>
+      <c r="FM7" s="39"/>
+      <c r="FN7" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="FO7" s="36"/>
-      <c r="FP7" s="36"/>
-      <c r="FQ7" s="35" t="s">
+      <c r="FO7" s="39"/>
+      <c r="FP7" s="39"/>
+      <c r="FQ7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="FR7" s="36"/>
-      <c r="FS7" s="36"/>
-      <c r="FT7" s="35" t="s">
+      <c r="FR7" s="39"/>
+      <c r="FS7" s="39"/>
+      <c r="FT7" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="FU7" s="36"/>
-      <c r="FV7" s="36"/>
-      <c r="FW7" s="35" t="s">
+      <c r="FU7" s="39"/>
+      <c r="FV7" s="39"/>
+      <c r="FW7" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="FX7" s="36"/>
-      <c r="FY7" s="36"/>
-      <c r="FZ7" s="35" t="s">
+      <c r="FX7" s="39"/>
+      <c r="FY7" s="39"/>
+      <c r="FZ7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="GA7" s="36"/>
-      <c r="GB7" s="36"/>
-      <c r="GC7" s="35" t="s">
+      <c r="GA7" s="39"/>
+      <c r="GB7" s="39"/>
+      <c r="GC7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="GD7" s="36"/>
-      <c r="GE7" s="36"/>
-      <c r="GF7" s="35" t="s">
+      <c r="GD7" s="39"/>
+      <c r="GE7" s="39"/>
+      <c r="GF7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="GG7" s="36"/>
-      <c r="GH7" s="36"/>
-      <c r="GI7" s="35" t="s">
+      <c r="GG7" s="39"/>
+      <c r="GH7" s="39"/>
+      <c r="GI7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="GJ7" s="36"/>
-      <c r="GK7" s="36"/>
-      <c r="GL7" s="39" t="s">
+      <c r="GJ7" s="39"/>
+      <c r="GK7" s="39"/>
+      <c r="GL7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="GM7" s="39" t="s">
+      <c r="GM7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="GN7" s="39" t="s">
+      <c r="GN7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="GO7" s="39" t="s">
+      <c r="GO7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="GP7" s="39" t="s">
+      <c r="GP7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="GQ7" s="39" t="s">
+      <c r="GQ7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="GR7" s="39" t="s">
+      <c r="GR7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="GS7" s="39" t="s">
+      <c r="GS7" s="42" t="s">
         <v>86</v>
       </c>
+      <c r="GT7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="GU7" s="47" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="8" spans="1:201" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="35">
-        <v>3</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35">
-        <v>2</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="35">
-        <v>2</v>
-      </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="35">
-        <v>2</v>
-      </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="35">
-        <v>2</v>
-      </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37">
-        <v>2</v>
-      </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="37">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="37">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="37">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="37">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="35">
-        <v>2</v>
-      </c>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="35">
-        <v>2</v>
-      </c>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="36"/>
-      <c r="BD8" s="35">
-        <v>2</v>
-      </c>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="35">
-        <v>3</v>
-      </c>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="35">
-        <v>3</v>
-      </c>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="35">
+    <row r="8" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="38">
+        <v>3</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38">
+        <v>2</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="38">
+        <v>2</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="38">
+        <v>2</v>
+      </c>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="38">
+        <v>2</v>
+      </c>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="45">
+        <v>2</v>
+      </c>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="45">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="45">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="45">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="38">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="38">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="38">
+        <v>3</v>
+      </c>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="38">
+        <v>3</v>
+      </c>
+      <c r="BK8" s="39"/>
+      <c r="BL8" s="39"/>
+      <c r="BM8" s="38">
         <v>4</v>
       </c>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="35">
+      <c r="BN8" s="39"/>
+      <c r="BO8" s="39"/>
+      <c r="BP8" s="38">
         <v>10</v>
       </c>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="35">
+      <c r="BQ8" s="39"/>
+      <c r="BR8" s="39"/>
+      <c r="BS8" s="38">
         <v>4</v>
       </c>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="35">
+      <c r="BT8" s="39"/>
+      <c r="BU8" s="39"/>
+      <c r="BV8" s="38">
         <v>4</v>
       </c>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="35">
-        <v>2</v>
-      </c>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CF8" s="36"/>
-      <c r="CG8" s="36"/>
-      <c r="CH8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CI8" s="36"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CL8" s="36"/>
-      <c r="CM8" s="36"/>
-      <c r="CN8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CO8" s="36"/>
-      <c r="CP8" s="36"/>
-      <c r="CQ8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CR8" s="36"/>
-      <c r="CS8" s="36"/>
-      <c r="CT8" s="35">
-        <v>3</v>
-      </c>
-      <c r="CU8" s="36"/>
-      <c r="CV8" s="36"/>
-      <c r="CW8" s="35">
-        <v>2</v>
-      </c>
-      <c r="CX8" s="36"/>
-      <c r="CY8" s="36"/>
-      <c r="CZ8" s="35">
-        <v>2</v>
-      </c>
-      <c r="DA8" s="36"/>
-      <c r="DB8" s="36"/>
-      <c r="DC8" s="35">
-        <v>2</v>
-      </c>
-      <c r="DD8" s="36"/>
-      <c r="DE8" s="36"/>
-      <c r="DF8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DG8" s="36"/>
-      <c r="DH8" s="36"/>
-      <c r="DI8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DJ8" s="36"/>
-      <c r="DK8" s="36"/>
-      <c r="DL8" s="35">
-        <v>2</v>
-      </c>
-      <c r="DM8" s="36"/>
-      <c r="DN8" s="36"/>
-      <c r="DO8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DP8" s="36"/>
-      <c r="DQ8" s="36"/>
-      <c r="DR8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DS8" s="36"/>
-      <c r="DT8" s="36"/>
-      <c r="DU8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DV8" s="36"/>
-      <c r="DW8" s="36"/>
-      <c r="DX8" s="35">
-        <v>3</v>
-      </c>
-      <c r="DY8" s="36"/>
-      <c r="DZ8" s="36"/>
-      <c r="EA8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EB8" s="36"/>
-      <c r="EC8" s="36"/>
-      <c r="ED8" s="35">
-        <v>3</v>
-      </c>
-      <c r="EE8" s="36"/>
-      <c r="EF8" s="36"/>
-      <c r="EG8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EH8" s="36"/>
-      <c r="EI8" s="36"/>
-      <c r="EJ8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EK8" s="36"/>
-      <c r="EL8" s="36"/>
-      <c r="EM8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EN8" s="36"/>
-      <c r="EO8" s="36"/>
-      <c r="EP8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EQ8" s="36"/>
-      <c r="ER8" s="36"/>
-      <c r="ES8" s="35">
-        <v>2</v>
-      </c>
-      <c r="ET8" s="36"/>
-      <c r="EU8" s="36"/>
-      <c r="EV8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EW8" s="36"/>
-      <c r="EX8" s="36"/>
-      <c r="EY8" s="35">
-        <v>2</v>
-      </c>
-      <c r="EZ8" s="36"/>
-      <c r="FA8" s="36"/>
-      <c r="FB8" s="35">
-        <v>3</v>
-      </c>
-      <c r="FC8" s="36"/>
-      <c r="FD8" s="36"/>
-      <c r="FE8" s="35">
-        <v>3</v>
-      </c>
-      <c r="FF8" s="36"/>
-      <c r="FG8" s="36"/>
-      <c r="FH8" s="35">
-        <v>3</v>
-      </c>
-      <c r="FI8" s="36"/>
-      <c r="FJ8" s="36"/>
-      <c r="FK8" s="35">
-        <v>3</v>
-      </c>
-      <c r="FL8" s="36"/>
-      <c r="FM8" s="36"/>
-      <c r="FN8" s="35">
+      <c r="BW8" s="39"/>
+      <c r="BX8" s="39"/>
+      <c r="BY8" s="38">
+        <v>2</v>
+      </c>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="39"/>
+      <c r="CB8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CC8" s="39"/>
+      <c r="CD8" s="39"/>
+      <c r="CE8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CF8" s="39"/>
+      <c r="CG8" s="39"/>
+      <c r="CH8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CI8" s="39"/>
+      <c r="CJ8" s="39"/>
+      <c r="CK8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CL8" s="39"/>
+      <c r="CM8" s="39"/>
+      <c r="CN8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CO8" s="39"/>
+      <c r="CP8" s="39"/>
+      <c r="CQ8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CR8" s="39"/>
+      <c r="CS8" s="39"/>
+      <c r="CT8" s="38">
+        <v>3</v>
+      </c>
+      <c r="CU8" s="39"/>
+      <c r="CV8" s="39"/>
+      <c r="CW8" s="38">
+        <v>2</v>
+      </c>
+      <c r="CX8" s="39"/>
+      <c r="CY8" s="39"/>
+      <c r="CZ8" s="38">
+        <v>2</v>
+      </c>
+      <c r="DA8" s="39"/>
+      <c r="DB8" s="39"/>
+      <c r="DC8" s="38">
+        <v>2</v>
+      </c>
+      <c r="DD8" s="39"/>
+      <c r="DE8" s="39"/>
+      <c r="DF8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DG8" s="39"/>
+      <c r="DH8" s="39"/>
+      <c r="DI8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DJ8" s="39"/>
+      <c r="DK8" s="39"/>
+      <c r="DL8" s="38">
+        <v>2</v>
+      </c>
+      <c r="DM8" s="39"/>
+      <c r="DN8" s="39"/>
+      <c r="DO8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DP8" s="39"/>
+      <c r="DQ8" s="39"/>
+      <c r="DR8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DS8" s="39"/>
+      <c r="DT8" s="39"/>
+      <c r="DU8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DV8" s="39"/>
+      <c r="DW8" s="39"/>
+      <c r="DX8" s="38">
+        <v>3</v>
+      </c>
+      <c r="DY8" s="39"/>
+      <c r="DZ8" s="39"/>
+      <c r="EA8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EB8" s="39"/>
+      <c r="EC8" s="39"/>
+      <c r="ED8" s="38">
+        <v>3</v>
+      </c>
+      <c r="EE8" s="39"/>
+      <c r="EF8" s="39"/>
+      <c r="EG8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EH8" s="39"/>
+      <c r="EI8" s="39"/>
+      <c r="EJ8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EK8" s="39"/>
+      <c r="EL8" s="39"/>
+      <c r="EM8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EN8" s="39"/>
+      <c r="EO8" s="39"/>
+      <c r="EP8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EQ8" s="39"/>
+      <c r="ER8" s="39"/>
+      <c r="ES8" s="38">
+        <v>2</v>
+      </c>
+      <c r="ET8" s="39"/>
+      <c r="EU8" s="39"/>
+      <c r="EV8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EW8" s="39"/>
+      <c r="EX8" s="39"/>
+      <c r="EY8" s="38">
+        <v>2</v>
+      </c>
+      <c r="EZ8" s="39"/>
+      <c r="FA8" s="39"/>
+      <c r="FB8" s="38">
+        <v>3</v>
+      </c>
+      <c r="FC8" s="39"/>
+      <c r="FD8" s="39"/>
+      <c r="FE8" s="38">
+        <v>3</v>
+      </c>
+      <c r="FF8" s="39"/>
+      <c r="FG8" s="39"/>
+      <c r="FH8" s="38">
+        <v>3</v>
+      </c>
+      <c r="FI8" s="39"/>
+      <c r="FJ8" s="39"/>
+      <c r="FK8" s="38">
+        <v>3</v>
+      </c>
+      <c r="FL8" s="39"/>
+      <c r="FM8" s="39"/>
+      <c r="FN8" s="38">
         <v>4</v>
       </c>
-      <c r="FO8" s="36"/>
-      <c r="FP8" s="36"/>
-      <c r="FQ8" s="35">
+      <c r="FO8" s="39"/>
+      <c r="FP8" s="39"/>
+      <c r="FQ8" s="38">
         <v>4</v>
       </c>
-      <c r="FR8" s="36"/>
-      <c r="FS8" s="36"/>
-      <c r="FT8" s="35">
-        <v>2</v>
-      </c>
-      <c r="FU8" s="36"/>
-      <c r="FV8" s="36"/>
-      <c r="FW8" s="35">
-        <v>2</v>
-      </c>
-      <c r="FX8" s="36"/>
-      <c r="FY8" s="36"/>
-      <c r="FZ8" s="35">
+      <c r="FR8" s="39"/>
+      <c r="FS8" s="39"/>
+      <c r="FT8" s="38">
+        <v>2</v>
+      </c>
+      <c r="FU8" s="39"/>
+      <c r="FV8" s="39"/>
+      <c r="FW8" s="38">
+        <v>2</v>
+      </c>
+      <c r="FX8" s="39"/>
+      <c r="FY8" s="39"/>
+      <c r="FZ8" s="38">
         <v>4</v>
       </c>
-      <c r="GA8" s="36"/>
-      <c r="GB8" s="36"/>
-      <c r="GC8" s="35">
-        <v>2</v>
-      </c>
-      <c r="GD8" s="36"/>
-      <c r="GE8" s="36"/>
-      <c r="GF8" s="35">
-        <v>2</v>
-      </c>
-      <c r="GG8" s="36"/>
-      <c r="GH8" s="36"/>
-      <c r="GI8" s="35">
+      <c r="GA8" s="39"/>
+      <c r="GB8" s="39"/>
+      <c r="GC8" s="38">
+        <v>2</v>
+      </c>
+      <c r="GD8" s="39"/>
+      <c r="GE8" s="39"/>
+      <c r="GF8" s="38">
+        <v>2</v>
+      </c>
+      <c r="GG8" s="39"/>
+      <c r="GH8" s="39"/>
+      <c r="GI8" s="38">
         <v>5</v>
       </c>
-      <c r="GJ8" s="36"/>
-      <c r="GK8" s="36"/>
-      <c r="GL8" s="40"/>
-      <c r="GM8" s="40"/>
-      <c r="GN8" s="40"/>
-      <c r="GO8" s="40"/>
-      <c r="GP8" s="40"/>
-      <c r="GQ8" s="40"/>
-      <c r="GR8" s="40"/>
-      <c r="GS8" s="40"/>
+      <c r="GJ8" s="39"/>
+      <c r="GK8" s="39"/>
+      <c r="GL8" s="41"/>
+      <c r="GM8" s="41"/>
+      <c r="GN8" s="41"/>
+      <c r="GO8" s="41"/>
+      <c r="GP8" s="41"/>
+      <c r="GQ8" s="41"/>
+      <c r="GR8" s="41"/>
+      <c r="GS8" s="43"/>
+      <c r="GT8" s="47"/>
+      <c r="GU8" s="47"/>
     </row>
-    <row r="9" spans="1:201" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="44"/>
+    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="18" t="s">
         <v>87</v>
       </c>
@@ -3613,42 +3695,44 @@
       <c r="GK9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="GL9" s="40"/>
-      <c r="GM9" s="40"/>
-      <c r="GN9" s="40"/>
-      <c r="GO9" s="40"/>
-      <c r="GP9" s="40"/>
-      <c r="GQ9" s="40"/>
-      <c r="GR9" s="40"/>
-      <c r="GS9" s="40"/>
+      <c r="GL9" s="41"/>
+      <c r="GM9" s="41"/>
+      <c r="GN9" s="44"/>
+      <c r="GO9" s="41"/>
+      <c r="GP9" s="41"/>
+      <c r="GQ9" s="41"/>
+      <c r="GR9" s="41"/>
+      <c r="GS9" s="43"/>
+      <c r="GT9" s="47"/>
+      <c r="GU9" s="47"/>
     </row>
-    <row r="10" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1</v>
       </c>
       <c r="B10" s="22">
-        <v>1601</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="H10" s="25">
         <v>3</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J10" s="25">
         <v>2</v>
@@ -3657,7 +3741,7 @@
         <v>5.4</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M10" s="25">
         <v>1.5</v>
@@ -3666,7 +3750,7 @@
         <v>7.6</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P10" s="25">
         <v>3</v>
@@ -3675,7 +3759,7 @@
         <v>7.3</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S10" s="25">
         <v>3</v>
@@ -3684,7 +3768,7 @@
         <v>6.9</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V10" s="25">
         <v>2.5</v>
@@ -3693,7 +3777,7 @@
         <v>5.3</v>
       </c>
       <c r="X10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="25">
         <v>1</v>
@@ -3702,7 +3786,7 @@
         <v>6.2</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AB10" s="25">
         <v>2</v>
@@ -3711,7 +3795,7 @@
         <v>9.4</v>
       </c>
       <c r="AD10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE10" s="25">
         <v>4</v>
@@ -3720,7 +3804,7 @@
         <v>7.6</v>
       </c>
       <c r="AG10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AH10" s="25">
         <v>3</v>
@@ -3729,7 +3813,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="25">
         <v>3</v>
@@ -3750,7 +3834,7 @@
         <v>6.4</v>
       </c>
       <c r="AY10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AZ10" s="25">
         <v>2</v>
@@ -3759,7 +3843,7 @@
         <v>6.5</v>
       </c>
       <c r="BB10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BC10" s="25">
         <v>2</v>
@@ -3768,7 +3852,7 @@
         <v>6.7</v>
       </c>
       <c r="BE10" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BF10" s="25">
         <v>2.5</v>
@@ -3777,7 +3861,7 @@
         <v>8.1</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BI10" s="25">
         <v>3</v>
@@ -3792,7 +3876,7 @@
         <v>8.9</v>
       </c>
       <c r="BQ10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BR10" s="25">
         <v>4</v>
@@ -3804,7 +3888,7 @@
         <v>8.4</v>
       </c>
       <c r="BW10" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BX10" s="25">
         <v>3.5</v>
@@ -3813,7 +3897,7 @@
         <v>6.7</v>
       </c>
       <c r="BZ10" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="CA10" s="25">
         <v>2.5</v>
@@ -3822,7 +3906,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="CC10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CD10" s="25">
         <v>1</v>
@@ -3831,7 +3915,7 @@
         <v>6.4</v>
       </c>
       <c r="CF10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CG10" s="25">
         <v>2</v>
@@ -3840,7 +3924,7 @@
         <v>6.7</v>
       </c>
       <c r="CI10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CJ10" s="25">
         <v>2</v>
@@ -3849,7 +3933,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="CL10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CM10" s="25">
         <v>4</v>
@@ -3858,7 +3942,7 @@
         <v>7.3</v>
       </c>
       <c r="CO10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CP10" s="25">
         <v>3</v>
@@ -3867,7 +3951,7 @@
         <v>6.6</v>
       </c>
       <c r="CR10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CS10" s="25">
         <v>2</v>
@@ -3876,7 +3960,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="CU10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CV10" s="25">
         <v>1</v>
@@ -3885,7 +3969,7 @@
         <v>7.8</v>
       </c>
       <c r="CX10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CY10" s="25">
         <v>3</v>
@@ -3894,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="DA10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DB10" s="25">
         <v>2</v>
@@ -3903,7 +3987,7 @@
         <v>7.3</v>
       </c>
       <c r="DD10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DE10" s="25">
         <v>3</v>
@@ -3912,7 +3996,7 @@
         <v>9.1</v>
       </c>
       <c r="DG10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="DH10" s="25">
         <v>4</v>
@@ -3921,7 +4005,7 @@
         <v>7.9</v>
       </c>
       <c r="DJ10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DK10" s="25">
         <v>3</v>
@@ -3930,7 +4014,7 @@
         <v>9.1</v>
       </c>
       <c r="DM10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="DN10" s="25">
         <v>4</v>
@@ -3939,7 +4023,7 @@
         <v>5.7</v>
       </c>
       <c r="DP10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DQ10" s="25">
         <v>2</v>
@@ -3948,7 +4032,7 @@
         <v>6.3</v>
       </c>
       <c r="DS10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DT10" s="25">
         <v>2</v>
@@ -3957,7 +4041,7 @@
         <v>6.6</v>
       </c>
       <c r="DV10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DW10" s="25">
         <v>2</v>
@@ -3966,7 +4050,7 @@
         <v>8.5</v>
       </c>
       <c r="DY10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="DZ10" s="25">
         <v>4</v>
@@ -3975,7 +4059,7 @@
         <v>4.3</v>
       </c>
       <c r="EB10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="EC10" s="25">
         <v>1</v>
@@ -3984,7 +4068,7 @@
         <v>7.9</v>
       </c>
       <c r="EE10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EF10" s="25">
         <v>3</v>
@@ -3993,7 +4077,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="EH10" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="EI10" s="25">
         <v>3.5</v>
@@ -4002,7 +4086,7 @@
         <v>5.2</v>
       </c>
       <c r="EK10" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="EL10" s="25">
         <v>1.5</v>
@@ -4011,7 +4095,7 @@
         <v>7.8</v>
       </c>
       <c r="EN10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EO10" s="25">
         <v>3</v>
@@ -4020,7 +4104,7 @@
         <v>6.1</v>
       </c>
       <c r="EQ10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="ER10" s="25">
         <v>2</v>
@@ -4029,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="ET10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EU10" s="25">
         <v>3</v>
@@ -4038,7 +4122,7 @@
         <v>6.6</v>
       </c>
       <c r="EW10" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="EX10" s="25">
         <v>2.5</v>
@@ -4047,7 +4131,7 @@
         <v>6.1</v>
       </c>
       <c r="EZ10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FA10" s="25">
         <v>2</v>
@@ -4056,7 +4140,7 @@
         <v>4.2</v>
       </c>
       <c r="FC10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FD10" s="25">
         <v>1</v>
@@ -4065,7 +4149,7 @@
         <v>6.4</v>
       </c>
       <c r="FF10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FG10" s="25">
         <v>2</v>
@@ -4074,7 +4158,7 @@
         <v>7.6</v>
       </c>
       <c r="FI10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="FJ10" s="25">
         <v>3</v>
@@ -4083,7 +4167,7 @@
         <v>6.2</v>
       </c>
       <c r="FL10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FM10" s="25">
         <v>2</v>
@@ -4092,7 +4176,7 @@
         <v>7.4</v>
       </c>
       <c r="FO10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="FP10" s="25">
         <v>3</v>
@@ -4101,7 +4185,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="FR10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FS10" s="25">
         <v>1</v>
@@ -4110,7 +4194,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="FU10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FV10" s="25">
         <v>1</v>
@@ -4119,7 +4203,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="FX10" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FY10" s="25">
         <v>1</v>
@@ -4128,7 +4212,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="GA10" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="GB10" s="25">
         <v>3.5</v>
@@ -4137,7 +4221,7 @@
         <v>7.3</v>
       </c>
       <c r="GD10" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="GE10" s="25">
         <v>3</v>
@@ -4146,7 +4230,7 @@
         <v>5.5</v>
       </c>
       <c r="GG10" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="GH10" s="25">
         <v>2</v>
@@ -4155,22 +4239,22 @@
         <v>6.1</v>
       </c>
       <c r="GJ10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="GK10" s="25">
+        <v>2</v>
+      </c>
+      <c r="GL10" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="GK10" s="25">
-        <v>2</v>
-      </c>
-      <c r="GL10" s="27" t="s">
-        <v>102</v>
-      </c>
       <c r="GM10" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GN10" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GO10" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="GP10" s="28">
         <v>2.5499999999999998</v>
@@ -4181,31 +4265,37 @@
       <c r="GR10" s="22">
         <v>0</v>
       </c>
-      <c r="GS10" s="22" t="s">
-        <v>104</v>
+      <c r="GS10" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="GT10" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="GU10" s="37" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:201" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:203" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>2</v>
       </c>
       <c r="B11" s="22">
-        <v>1602</v>
+        <v>2001</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -4226,7 +4316,7 @@
         <v>6.7</v>
       </c>
       <c r="X11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Y11" s="25">
         <v>2</v>
@@ -4235,7 +4325,7 @@
         <v>8</v>
       </c>
       <c r="AA11" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="25">
         <v>3.5</v>
@@ -4244,7 +4334,7 @@
         <v>7.9</v>
       </c>
       <c r="AD11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE11" s="25">
         <v>3</v>
@@ -4253,7 +4343,7 @@
         <v>7.8</v>
       </c>
       <c r="AG11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AH11" s="25">
         <v>3</v>
@@ -4262,7 +4352,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AK11" s="25">
         <v>4</v>
@@ -4271,7 +4361,7 @@
         <v>6.3</v>
       </c>
       <c r="AM11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AN11" s="25">
         <v>2</v>
@@ -4280,7 +4370,7 @@
         <v>5.4</v>
       </c>
       <c r="AP11" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ11" s="25">
         <v>1.5</v>
@@ -4289,7 +4379,7 @@
         <v>6.9</v>
       </c>
       <c r="AS11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AT11" s="25">
         <v>2.5</v>
@@ -4298,7 +4388,7 @@
         <v>6.7</v>
       </c>
       <c r="AV11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AW11" s="25">
         <v>2.5</v>
@@ -4307,7 +4397,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AY11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AZ11" s="25">
         <v>1</v>
@@ -4316,7 +4406,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="BB11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BC11" s="25">
         <v>1</v>
@@ -4325,7 +4415,7 @@
         <v>5.8</v>
       </c>
       <c r="BE11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BF11" s="25">
         <v>2</v>
@@ -4334,7 +4424,7 @@
         <v>4.7</v>
       </c>
       <c r="BH11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BI11" s="25">
         <v>1</v>
@@ -4349,7 +4439,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="BQ11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BR11" s="25">
         <v>4</v>
@@ -4358,7 +4448,7 @@
         <v>9</v>
       </c>
       <c r="BT11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BU11" s="25">
         <v>4</v>
@@ -4370,7 +4460,7 @@
         <v>7.6</v>
       </c>
       <c r="BZ11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CA11" s="25">
         <v>3</v>
@@ -4379,7 +4469,7 @@
         <v>5.4</v>
       </c>
       <c r="CC11" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="CD11" s="25">
         <v>1.5</v>
@@ -4388,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="CF11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CG11" s="25">
         <v>1</v>
@@ -4397,7 +4487,7 @@
         <v>4.3</v>
       </c>
       <c r="CI11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CJ11" s="25">
         <v>1</v>
@@ -4406,7 +4496,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="CL11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CM11" s="25">
         <v>4</v>
@@ -4415,7 +4505,7 @@
         <v>6.7</v>
       </c>
       <c r="CO11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CP11" s="25">
         <v>2</v>
@@ -4424,7 +4514,7 @@
         <v>5.2</v>
       </c>
       <c r="CR11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CS11" s="25">
         <v>1</v>
@@ -4433,7 +4523,7 @@
         <v>6.1</v>
       </c>
       <c r="CU11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CV11" s="25">
         <v>2</v>
@@ -4442,7 +4532,7 @@
         <v>7.2</v>
       </c>
       <c r="CX11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CY11" s="25">
         <v>3</v>
@@ -4451,7 +4541,7 @@
         <v>6.4</v>
       </c>
       <c r="DA11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DB11" s="25">
         <v>2</v>
@@ -4460,7 +4550,7 @@
         <v>5.5</v>
       </c>
       <c r="DD11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DE11" s="25">
         <v>2</v>
@@ -4469,7 +4559,7 @@
         <v>8.5</v>
       </c>
       <c r="DG11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="DH11" s="25">
         <v>4</v>
@@ -4478,7 +4568,7 @@
         <v>6.3</v>
       </c>
       <c r="DJ11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DK11" s="25">
         <v>2</v>
@@ -4487,7 +4577,7 @@
         <v>6.4</v>
       </c>
       <c r="DM11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DN11" s="25">
         <v>2</v>
@@ -4496,7 +4586,7 @@
         <v>6.3</v>
       </c>
       <c r="DP11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DQ11" s="25">
         <v>2</v>
@@ -4505,7 +4595,7 @@
         <v>5.7</v>
       </c>
       <c r="DS11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DT11" s="25">
         <v>2</v>
@@ -4514,7 +4604,7 @@
         <v>6.3</v>
       </c>
       <c r="DV11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DW11" s="25">
         <v>2</v>
@@ -4523,7 +4613,7 @@
         <v>7</v>
       </c>
       <c r="DY11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DZ11" s="25">
         <v>3</v>
@@ -4532,7 +4622,7 @@
         <v>6.3</v>
       </c>
       <c r="EB11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="EC11" s="25">
         <v>2</v>
@@ -4541,7 +4631,7 @@
         <v>7.3</v>
       </c>
       <c r="EE11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EF11" s="25">
         <v>3</v>
@@ -4550,7 +4640,7 @@
         <v>7.4</v>
       </c>
       <c r="EH11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EI11" s="25">
         <v>3</v>
@@ -4559,7 +4649,7 @@
         <v>4.5</v>
       </c>
       <c r="EK11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="EL11" s="25">
         <v>1</v>
@@ -4568,7 +4658,7 @@
         <v>4.3</v>
       </c>
       <c r="EN11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="EO11" s="25">
         <v>1</v>
@@ -4577,7 +4667,7 @@
         <v>6.5</v>
       </c>
       <c r="EQ11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="ER11" s="25">
         <v>2.5</v>
@@ -4586,7 +4676,7 @@
         <v>6.3</v>
       </c>
       <c r="ET11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="EU11" s="25">
         <v>2</v>
@@ -4595,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="EW11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="EX11" s="25">
         <v>2</v>
@@ -4604,7 +4694,7 @@
         <v>7.6</v>
       </c>
       <c r="EZ11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="FA11" s="25">
         <v>3</v>
@@ -4613,7 +4703,7 @@
         <v>6.8</v>
       </c>
       <c r="FC11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FD11" s="25">
         <v>2</v>
@@ -4622,7 +4712,7 @@
         <v>4.5</v>
       </c>
       <c r="FF11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FG11" s="25">
         <v>1</v>
@@ -4631,7 +4721,7 @@
         <v>4.8</v>
       </c>
       <c r="FI11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FJ11" s="25">
         <v>1</v>
@@ -4640,7 +4730,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="FL11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FM11" s="25">
         <v>1</v>
@@ -4649,7 +4739,7 @@
         <v>6.6</v>
       </c>
       <c r="FO11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="FP11" s="25">
         <v>2.5</v>
@@ -4658,7 +4748,7 @@
         <v>5.5</v>
       </c>
       <c r="FR11" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FS11" s="25">
         <v>2</v>
@@ -4667,7 +4757,7 @@
         <v>5.3</v>
       </c>
       <c r="FU11" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="FV11" s="25">
         <v>1.5</v>
@@ -4676,7 +4766,7 @@
         <v>4.8</v>
       </c>
       <c r="FX11" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FY11" s="25">
         <v>1</v>
@@ -4685,7 +4775,7 @@
         <v>6.6</v>
       </c>
       <c r="GA11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="GB11" s="25">
         <v>2.5</v>
@@ -4694,7 +4784,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="GD11" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="GE11" s="25">
         <v>1.5</v>
@@ -4703,7 +4793,7 @@
         <v>5.4</v>
       </c>
       <c r="GG11" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="GH11" s="25">
         <v>1.5</v>
@@ -4712,22 +4802,22 @@
         <v>7.4</v>
       </c>
       <c r="GJ11" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="GK11" s="25">
         <v>3</v>
       </c>
       <c r="GL11" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GM11" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GN11" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GO11" s="29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="GP11" s="28">
         <v>2.2999999999999998</v>
@@ -4738,31 +4828,37 @@
       <c r="GR11" s="22">
         <v>0</v>
       </c>
-      <c r="GS11" s="22" t="s">
-        <v>110</v>
+      <c r="GS11" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="GT11" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="GU11" s="37" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>3</v>
       </c>
       <c r="B12" s="22">
-        <v>1601</v>
+        <v>2001</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -4771,7 +4867,7 @@
         <v>7.3</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M12" s="25">
         <v>3</v>
@@ -4780,7 +4876,7 @@
         <v>6.4</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P12" s="25">
         <v>2</v>
@@ -4789,7 +4885,7 @@
         <v>6.6</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S12" s="25">
         <v>2.5</v>
@@ -4798,7 +4894,7 @@
         <v>5.9</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V12" s="25">
         <v>2</v>
@@ -4807,7 +4903,7 @@
         <v>7.1</v>
       </c>
       <c r="X12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y12" s="25">
         <v>3</v>
@@ -4816,7 +4912,7 @@
         <v>6.1</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AB12" s="25">
         <v>2</v>
@@ -4825,7 +4921,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AD12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="25">
         <v>4</v>
@@ -4834,7 +4930,7 @@
         <v>7.9</v>
       </c>
       <c r="AG12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AH12" s="25">
         <v>3</v>
@@ -4843,7 +4939,7 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AK12" s="25">
         <v>3.5</v>
@@ -4864,7 +4960,7 @@
         <v>7.2</v>
       </c>
       <c r="AY12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AZ12" s="25">
         <v>3</v>
@@ -4873,7 +4969,7 @@
         <v>6.3</v>
       </c>
       <c r="BB12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BC12" s="25">
         <v>2</v>
@@ -4882,7 +4978,7 @@
         <v>5.8</v>
       </c>
       <c r="BE12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BF12" s="25">
         <v>2</v>
@@ -4891,7 +4987,7 @@
         <v>5.9</v>
       </c>
       <c r="BH12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BI12" s="25">
         <v>2</v>
@@ -4906,7 +5002,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="BQ12" s="25" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="BR12" s="25">
         <v>4</v>
@@ -4918,7 +5014,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="BW12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BX12" s="25">
         <v>4</v>
@@ -4927,7 +5023,7 @@
         <v>6.3</v>
       </c>
       <c r="BZ12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CA12" s="25">
         <v>2</v>
@@ -4936,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="CC12" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CD12" s="25">
         <v>1</v>
@@ -4945,7 +5041,7 @@
         <v>5.2</v>
       </c>
       <c r="CF12" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="CG12" s="25">
         <v>1.5</v>
@@ -4954,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="CI12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CJ12" s="25">
         <v>3</v>
@@ -4963,7 +5059,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="CL12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CM12" s="25">
         <v>3</v>
@@ -4972,7 +5068,7 @@
         <v>5.4</v>
       </c>
       <c r="CO12" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CP12" s="25">
         <v>1</v>
@@ -4981,7 +5077,7 @@
         <v>6.6</v>
       </c>
       <c r="CR12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CS12" s="25">
         <v>2</v>
@@ -4990,7 +5086,7 @@
         <v>6.9</v>
       </c>
       <c r="CU12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CV12" s="25">
         <v>2</v>
@@ -4999,7 +5095,7 @@
         <v>8.6</v>
       </c>
       <c r="CX12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CY12" s="25">
         <v>4</v>
@@ -5008,7 +5104,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="DA12" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="DB12" s="25">
         <v>1</v>
@@ -5017,7 +5113,7 @@
         <v>7</v>
       </c>
       <c r="DD12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DE12" s="25">
         <v>3</v>
@@ -5026,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="DG12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DH12" s="25">
         <v>3</v>
@@ -5035,7 +5131,7 @@
         <v>7.8</v>
       </c>
       <c r="DJ12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DK12" s="25">
         <v>3</v>
@@ -5044,7 +5140,7 @@
         <v>7.9</v>
       </c>
       <c r="DM12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DN12" s="25">
         <v>3</v>
@@ -5053,7 +5149,7 @@
         <v>7.7</v>
       </c>
       <c r="DP12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DQ12" s="25">
         <v>3</v>
@@ -5062,7 +5158,7 @@
         <v>6.1</v>
       </c>
       <c r="DS12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="DT12" s="25">
         <v>2</v>
@@ -5071,7 +5167,7 @@
         <v>8</v>
       </c>
       <c r="DV12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="DW12" s="25">
         <v>3</v>
@@ -5080,7 +5176,7 @@
         <v>8.5</v>
       </c>
       <c r="DY12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="DZ12" s="25">
         <v>4</v>
@@ -5089,7 +5185,7 @@
         <v>6.9</v>
       </c>
       <c r="EB12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="EC12" s="25">
         <v>2</v>
@@ -5098,7 +5194,7 @@
         <v>7.5</v>
       </c>
       <c r="EE12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EF12" s="25">
         <v>3</v>
@@ -5107,7 +5203,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="EH12" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="EI12" s="25">
         <v>3.5</v>
@@ -5116,7 +5212,7 @@
         <v>4.8</v>
       </c>
       <c r="EK12" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="EL12" s="25">
         <v>1</v>
@@ -5125,7 +5221,7 @@
         <v>7.9</v>
       </c>
       <c r="EN12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EO12" s="25">
         <v>3</v>
@@ -5134,7 +5230,7 @@
         <v>7</v>
       </c>
       <c r="EQ12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="ER12" s="25">
         <v>3</v>
@@ -5143,7 +5239,7 @@
         <v>7.1</v>
       </c>
       <c r="ET12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="EU12" s="25">
         <v>3</v>
@@ -5152,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="EW12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="EX12" s="25">
         <v>4</v>
@@ -5161,7 +5257,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="EZ12" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FA12" s="25">
         <v>1</v>
@@ -5170,7 +5266,7 @@
         <v>5.4</v>
       </c>
       <c r="FC12" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="FD12" s="25">
         <v>1.5</v>
@@ -5179,7 +5275,7 @@
         <v>6.2</v>
       </c>
       <c r="FF12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FG12" s="25">
         <v>2</v>
@@ -5188,7 +5284,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="FI12" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FJ12" s="25">
         <v>1</v>
@@ -5197,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="FL12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FM12" s="25">
         <v>2</v>
@@ -5206,7 +5302,7 @@
         <v>6.8</v>
       </c>
       <c r="FO12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FP12" s="25">
         <v>2</v>
@@ -5215,7 +5311,7 @@
         <v>6.4</v>
       </c>
       <c r="FR12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="FS12" s="25">
         <v>2</v>
@@ -5224,7 +5320,7 @@
         <v>6.9</v>
       </c>
       <c r="FU12" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="FV12" s="25">
         <v>2.5</v>
@@ -5233,7 +5329,7 @@
         <v>7</v>
       </c>
       <c r="FX12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="FY12" s="25">
         <v>3</v>
@@ -5242,7 +5338,7 @@
         <v>7.8</v>
       </c>
       <c r="GA12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="GB12" s="25">
         <v>3</v>
@@ -5251,7 +5347,7 @@
         <v>7.9</v>
       </c>
       <c r="GD12" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="GE12" s="25">
         <v>3</v>
@@ -5260,7 +5356,7 @@
         <v>6.4</v>
       </c>
       <c r="GG12" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="GH12" s="25">
         <v>2</v>
@@ -5269,22 +5365,22 @@
         <v>5.5</v>
       </c>
       <c r="GJ12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="GK12" s="25">
+        <v>2</v>
+      </c>
+      <c r="GL12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="GK12" s="25">
-        <v>2</v>
-      </c>
-      <c r="GL12" s="27" t="s">
-        <v>102</v>
-      </c>
       <c r="GM12" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GN12" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="GO12" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="GP12" s="28">
         <v>2.6</v>
@@ -5295,12 +5391,20 @@
       <c r="GR12" s="22">
         <v>0</v>
       </c>
-      <c r="GS12" s="22" t="s">
-        <v>104</v>
+      <c r="GS12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="GT12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="GU12" s="37" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="143">
+    <mergeCell ref="GT7:GT9"/>
+    <mergeCell ref="GU7:GU9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A7:A9"/>
@@ -5324,8 +5428,16 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
     <mergeCell ref="BD7:BF7"/>
     <mergeCell ref="BG7:BI7"/>
+    <mergeCell ref="BD8:BF8"/>
+    <mergeCell ref="BG8:BI8"/>
     <mergeCell ref="BJ7:BL7"/>
     <mergeCell ref="BM7:BO7"/>
     <mergeCell ref="BP7:BR7"/>
@@ -5357,6 +5469,9 @@
     <mergeCell ref="DO7:DQ7"/>
     <mergeCell ref="DR7:DT7"/>
     <mergeCell ref="DU7:DW7"/>
+    <mergeCell ref="DX7:DZ7"/>
+    <mergeCell ref="EA7:EC7"/>
+    <mergeCell ref="ED7:EF7"/>
     <mergeCell ref="GQ7:GQ9"/>
     <mergeCell ref="GR7:GR9"/>
     <mergeCell ref="GS7:GS9"/>
@@ -5370,12 +5485,6 @@
     <mergeCell ref="GC8:GE8"/>
     <mergeCell ref="GF8:GH8"/>
     <mergeCell ref="GI8:GK8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
     <mergeCell ref="GN7:GN9"/>
     <mergeCell ref="GO7:GO9"/>
     <mergeCell ref="GP7:GP9"/>
@@ -5391,11 +5500,6 @@
     <mergeCell ref="EY7:FA7"/>
     <mergeCell ref="FB7:FD7"/>
     <mergeCell ref="FE7:FG7"/>
-    <mergeCell ref="DX7:DZ7"/>
-    <mergeCell ref="EA7:EC7"/>
-    <mergeCell ref="ED7:EF7"/>
-    <mergeCell ref="BD8:BF8"/>
-    <mergeCell ref="BG8:BI8"/>
     <mergeCell ref="BJ8:BL8"/>
     <mergeCell ref="BM8:BO8"/>
     <mergeCell ref="BP8:BR8"/>
@@ -5444,5 +5548,6 @@
     <mergeCell ref="FE8:FG8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>